--- a/example/excel/测试表.xlsx
+++ b/example/excel/测试表.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="2" r:id="rId1"/>
     <sheet name="obj" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>activity</t>
   </si>
@@ -62,6 +75,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -95,6 +111,9 @@
     <t>num}]</t>
   </si>
   <si>
+    <t>ArrFloat[</t>
+  </si>
+  <si>
     <t>活动</t>
   </si>
   <si>
@@ -102,9 +121,6 @@
   </si>
   <si>
     <t>base</t>
-  </si>
-  <si>
-    <t>obj</t>
   </si>
   <si>
     <t>这里会生成一个Obj的对象</t>
@@ -152,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -174,34 +190,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -218,6 +206,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -227,41 +254,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,7 +307,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,43 +360,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,121 +492,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,21 +559,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +592,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,148 +665,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -821,52 +837,52 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1180,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1195,8 +1211,9 @@
     <col min="5" max="8" width="9" style="2"/>
     <col min="9" max="9" width="23" style="2" customWidth="1"/>
     <col min="10" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="26.875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="33.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1208,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1245,57 +1262,75 @@
       <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1314,8 +1349,11 @@
       <c r="J5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1349,8 +1387,11 @@
       <c r="L6" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1381,8 +1422,11 @@
       <c r="J7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1419,8 +1463,11 @@
       <c r="L8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1451,8 +1498,11 @@
       <c r="J9" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1483,8 +1533,11 @@
       <c r="J10" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1514,6 +1567,9 @@
       </c>
       <c r="J11" s="2">
         <v>14</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1547,20 +1603,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B1"/>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:1">
@@ -1570,66 +1624,66 @@
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/example/excel/测试表.xlsx
+++ b/example/excel/测试表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="2" r:id="rId1"/>
@@ -334,18 +334,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +355,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +698,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,16 +722,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -728,98 +740,104 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,29 +1217,29 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="23" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="33.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="3" customWidth="1"/>
+    <col min="5" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="23" style="3" customWidth="1"/>
+    <col min="10" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="33.375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1232,43 +1250,43 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1279,45 +1297,45 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:15">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1327,258 +1345,258 @@
         <v>10</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3">
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>4</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>8</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>9</v>
       </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3">
+      <c r="M6" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <v>5</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>6</v>
       </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3">
+      <c r="M7" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>3</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>7</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>8</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3">
+      <c r="M8" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>5</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>9</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>10</v>
       </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3">
+      <c r="M9" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>7</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>7</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>8</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>11</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>12</v>
       </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3">
+      <c r="M10" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>7</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>9</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>13</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>14</v>
       </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="M11" s="3">
+        <v>0.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
@@ -1612,17 +1630,16 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1"/>
       <c r="D1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:1">
+    <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:3">
+    <row r="3" ht="16.5" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
